--- a/Сравнения производительности.xlsx
+++ b/Сравнения производительности.xlsx
@@ -287,22 +287,22 @@
                 <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.2356799999999994E-2</c:v>
+                  <c:v>12134000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2982499999999996E-2</c:v>
+                  <c:v>11420400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4181600000000004E-2</c:v>
+                  <c:v>9271490</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2913299999999995E-2</c:v>
+                  <c:v>9649490</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3007399999999995E-2</c:v>
+                  <c:v>10663500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5891400000000007E-2</c:v>
+                  <c:v>10024800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,22 +374,22 @@
                 <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.10036299999999999</c:v>
+                  <c:v>10820600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.33671E-2</c:v>
+                  <c:v>11495900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11011</c:v>
+                  <c:v>9144070</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11011</c:v>
+                  <c:v>10817500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4103699999999998E-2</c:v>
+                  <c:v>9411300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.118727</c:v>
+                  <c:v>11838800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,15 +1283,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104773</xdr:rowOff>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,7 +1588,13 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="13" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1639,22 +1645,22 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>8.2356799999999994E-2</v>
+        <v>12134000</v>
       </c>
       <c r="H4" s="2">
-        <v>9.2982499999999996E-2</v>
+        <v>11420400</v>
       </c>
       <c r="I4" s="2">
-        <v>9.4181600000000004E-2</v>
+        <v>9271490</v>
       </c>
       <c r="J4" s="2">
-        <v>8.2913299999999995E-2</v>
+        <v>9649490</v>
       </c>
       <c r="K4" s="7">
-        <v>8.3007399999999995E-2</v>
+        <v>10663500</v>
       </c>
       <c r="L4" s="2">
-        <v>8.5891400000000007E-2</v>
+        <v>10024800</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -1671,22 +1677,22 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>0.10036299999999999</v>
+        <v>10820600</v>
       </c>
       <c r="H5" s="2">
-        <v>8.33671E-2</v>
+        <v>11495900</v>
       </c>
       <c r="I5" s="2">
-        <v>0.11011</v>
+        <v>9144070</v>
       </c>
       <c r="J5" s="2">
-        <v>0.11011</v>
+        <v>10817500</v>
       </c>
       <c r="K5" s="7">
-        <v>9.4103699999999998E-2</v>
+        <v>9411300</v>
       </c>
       <c r="L5" s="2">
-        <v>0.118727</v>
+        <v>11838800</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
